--- a/Lab4/CityPop.xlsx
+++ b/Lab4/CityPop.xlsx
@@ -1048,1303 +1048,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>35.683208499999999</v>
-      </c>
-      <c r="C2">
-        <v>139.80894470000001</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>23.3</v>
-      </c>
-      <c r="G2">
-        <v>26.61</v>
-      </c>
-      <c r="H2">
-        <v>28.55</v>
-      </c>
-      <c r="I2">
-        <v>30.3</v>
-      </c>
-      <c r="J2">
-        <v>32.53</v>
-      </c>
-      <c r="K2">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="L2">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="M2">
-        <v>35.619999999999997</v>
-      </c>
-      <c r="N2">
-        <v>36.67</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>28.608280199999999</v>
+        <v>35.683208499999999</v>
       </c>
       <c r="C3">
-        <v>77.200813299999993</v>
+        <v>139.80894470000001</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>3.53</v>
+        <v>23.3</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>26.61</v>
       </c>
       <c r="H3">
-        <v>5.56</v>
+        <v>28.55</v>
       </c>
       <c r="I3">
-        <v>7.33</v>
+        <v>30.3</v>
       </c>
       <c r="J3">
-        <v>9.73</v>
+        <v>32.53</v>
       </c>
       <c r="K3">
-        <v>12.41</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="L3">
-        <v>15.73</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="M3">
-        <v>19.489999999999998</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="N3">
-        <v>22.16</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>-23.562839499999999</v>
+        <v>28.608280199999999</v>
       </c>
       <c r="C4">
-        <v>-46.654640200000003</v>
+        <v>77.200813299999993</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>3.53</v>
       </c>
       <c r="G4">
-        <v>9.61</v>
+        <v>4.43</v>
       </c>
       <c r="H4">
-        <v>12.09</v>
+        <v>5.56</v>
       </c>
       <c r="I4">
-        <v>13.39</v>
+        <v>7.33</v>
       </c>
       <c r="J4">
-        <v>14.78</v>
+        <v>9.73</v>
       </c>
       <c r="K4">
-        <v>15.95</v>
+        <v>12.41</v>
       </c>
       <c r="L4">
-        <v>17.100000000000001</v>
+        <v>15.73</v>
       </c>
       <c r="M4">
-        <v>18.649999999999999</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="N4">
-        <v>20.260000000000002</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>18.930129999999998</v>
+        <v>-23.562839499999999</v>
       </c>
       <c r="C5">
-        <v>72.830093399999996</v>
+        <v>-46.654640200000003</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>5.81</v>
+        <v>7.62</v>
       </c>
       <c r="G5">
-        <v>7.08</v>
+        <v>9.61</v>
       </c>
       <c r="H5">
-        <v>8.66</v>
+        <v>12.09</v>
       </c>
       <c r="I5">
-        <v>10.34</v>
+        <v>13.39</v>
       </c>
       <c r="J5">
-        <v>12.31</v>
+        <v>14.78</v>
       </c>
       <c r="K5">
-        <v>14.11</v>
+        <v>15.95</v>
       </c>
       <c r="L5">
-        <v>16.09</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M5">
-        <v>18.21</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="N5">
-        <v>20.04</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>19.431959200000001</v>
+        <v>18.930129999999998</v>
       </c>
       <c r="C6">
-        <v>-99.133163499999995</v>
+        <v>72.830093399999996</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>8.77</v>
+        <v>5.81</v>
       </c>
       <c r="G6">
-        <v>10.69</v>
+        <v>7.08</v>
       </c>
       <c r="H6">
-        <v>13.01</v>
+        <v>8.66</v>
       </c>
       <c r="I6">
+        <v>10.34</v>
+      </c>
+      <c r="J6">
+        <v>12.31</v>
+      </c>
+      <c r="K6">
         <v>14.11</v>
       </c>
-      <c r="J6">
-        <v>15.31</v>
-      </c>
-      <c r="K6">
-        <v>16.809999999999999</v>
-      </c>
       <c r="L6">
-        <v>18.02</v>
+        <v>16.09</v>
       </c>
       <c r="M6">
-        <v>18.73</v>
+        <v>18.21</v>
       </c>
       <c r="N6">
-        <v>19.46</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40.7820015</v>
+        <v>19.431959200000001</v>
       </c>
       <c r="C7">
-        <v>-73.832702600000005</v>
+        <v>-99.133163499999995</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>16.190000000000001</v>
+        <v>8.77</v>
       </c>
       <c r="G7">
-        <v>15.88</v>
+        <v>10.69</v>
       </c>
       <c r="H7">
-        <v>15.6</v>
+        <v>13.01</v>
       </c>
       <c r="I7">
-        <v>15.83</v>
+        <v>14.11</v>
       </c>
       <c r="J7">
-        <v>16.09</v>
+        <v>15.31</v>
       </c>
       <c r="K7">
-        <v>16.940000000000001</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="L7">
-        <v>17.850000000000001</v>
+        <v>18.02</v>
       </c>
       <c r="M7">
         <v>18.73</v>
       </c>
       <c r="N7">
-        <v>19.43</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>31.2551594</v>
+        <v>40.7820015</v>
       </c>
       <c r="C8">
-        <v>121.4747009</v>
+        <v>-73.832702600000005</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>6.04</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="G8">
-        <v>5.63</v>
+        <v>15.88</v>
       </c>
       <c r="H8">
-        <v>5.97</v>
+        <v>15.6</v>
       </c>
       <c r="I8">
-        <v>6.85</v>
+        <v>15.83</v>
       </c>
       <c r="J8">
-        <v>7.82</v>
+        <v>16.09</v>
       </c>
       <c r="K8">
-        <v>10.17</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="L8">
-        <v>13.22</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="M8">
-        <v>15.18</v>
+        <v>18.73</v>
       </c>
       <c r="N8">
-        <v>16.579999999999998</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>22.5650902</v>
+        <v>31.2551594</v>
       </c>
       <c r="C9">
-        <v>88.3707809</v>
+        <v>121.4747009</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>6.93</v>
+        <v>6.04</v>
       </c>
       <c r="G9">
-        <v>7.89</v>
+        <v>5.63</v>
       </c>
       <c r="H9">
-        <v>9.0299999999999994</v>
+        <v>5.97</v>
       </c>
       <c r="I9">
-        <v>9.9499999999999993</v>
+        <v>6.85</v>
       </c>
       <c r="J9">
-        <v>10.89</v>
+        <v>7.82</v>
       </c>
       <c r="K9">
-        <v>11.92</v>
+        <v>10.17</v>
       </c>
       <c r="L9">
-        <v>13.06</v>
+        <v>13.22</v>
       </c>
       <c r="M9">
-        <v>14.28</v>
+        <v>15.18</v>
       </c>
       <c r="N9">
-        <v>15.55</v>
+        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>23.713230100000001</v>
+        <v>22.5650902</v>
       </c>
       <c r="C10">
-        <v>90.399566699999994</v>
+        <v>88.3707809</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>7.89</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I10">
-        <v>4.66</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J10">
-        <v>6.62</v>
+        <v>10.89</v>
       </c>
       <c r="K10">
-        <v>8.33</v>
+        <v>11.92</v>
       </c>
       <c r="L10">
-        <v>10.28</v>
+        <v>13.06</v>
       </c>
       <c r="M10">
-        <v>12.56</v>
+        <v>14.28</v>
       </c>
       <c r="N10">
-        <v>14.65</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>24.926710100000001</v>
+        <v>23.713230100000001</v>
       </c>
       <c r="C11">
-        <v>67.0343704</v>
+        <v>90.399566699999994</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6.03</v>
+        <v>4.66</v>
       </c>
       <c r="J11">
-        <v>7.15</v>
+        <v>6.62</v>
       </c>
       <c r="K11">
-        <v>8.4700000000000006</v>
+        <v>8.33</v>
       </c>
       <c r="L11">
-        <v>10.02</v>
+        <v>10.28</v>
       </c>
       <c r="M11">
-        <v>11.62</v>
+        <v>12.56</v>
       </c>
       <c r="N11">
-        <v>13.12</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-34.608509099999999</v>
+        <v>24.926710100000001</v>
       </c>
       <c r="C12">
-        <v>-58.373489399999997</v>
+        <v>67.0343704</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>8.74</v>
+        <v>3.99</v>
       </c>
       <c r="H12">
-        <v>9.42</v>
+        <v>5.05</v>
       </c>
       <c r="I12">
-        <v>9.9600000000000009</v>
+        <v>6.03</v>
       </c>
       <c r="J12">
-        <v>10.51</v>
+        <v>7.15</v>
       </c>
       <c r="K12">
-        <v>11.15</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="L12">
-        <v>11.85</v>
+        <v>10.02</v>
       </c>
       <c r="M12">
-        <v>12.55</v>
+        <v>11.62</v>
       </c>
       <c r="N12">
-        <v>13.07</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>34.0534897</v>
+        <v>-34.608509099999999</v>
       </c>
       <c r="C13">
-        <v>-118.2453232</v>
+        <v>-58.373489399999997</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>8.3800000000000008</v>
+        <v>8.1</v>
       </c>
       <c r="G13">
-        <v>8.93</v>
+        <v>8.74</v>
       </c>
       <c r="H13">
-        <v>9.51</v>
+        <v>9.42</v>
       </c>
       <c r="I13">
-        <v>10.18</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="J13">
-        <v>10.88</v>
+        <v>10.51</v>
       </c>
       <c r="K13">
-        <v>11.34</v>
+        <v>11.15</v>
       </c>
       <c r="L13">
-        <v>11.81</v>
+        <v>11.85</v>
       </c>
       <c r="M13">
-        <v>12.3</v>
+        <v>12.55</v>
       </c>
       <c r="N13">
-        <v>12.76</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>39.9065704</v>
+        <v>34.0534897</v>
       </c>
       <c r="C14">
-        <v>116.38764949999999</v>
+        <v>-118.2453232</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>4.43</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="G14">
-        <v>4.83</v>
+        <v>8.93</v>
       </c>
       <c r="H14">
-        <v>5.37</v>
+        <v>9.51</v>
       </c>
       <c r="I14">
-        <v>6.02</v>
+        <v>10.18</v>
       </c>
       <c r="J14">
-        <v>6.79</v>
+        <v>10.88</v>
       </c>
       <c r="K14">
-        <v>8.14</v>
+        <v>11.34</v>
       </c>
       <c r="L14">
-        <v>9.76</v>
+        <v>11.81</v>
       </c>
       <c r="M14">
-        <v>11.45</v>
+        <v>12.3</v>
       </c>
       <c r="N14">
-        <v>12.39</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>-22.9121609</v>
+        <v>39.9065704</v>
       </c>
       <c r="C15">
-        <v>-43.175010700000001</v>
+        <v>116.38764949999999</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>6.64</v>
+        <v>4.43</v>
       </c>
       <c r="G15">
-        <v>7.56</v>
+        <v>4.83</v>
       </c>
       <c r="H15">
-        <v>8.58</v>
+        <v>5.37</v>
       </c>
       <c r="I15">
-        <v>9.09</v>
+        <v>6.02</v>
       </c>
       <c r="J15">
-        <v>9.59</v>
+        <v>6.79</v>
       </c>
       <c r="K15">
-        <v>10.17</v>
+        <v>8.14</v>
       </c>
       <c r="L15">
-        <v>10.8</v>
+        <v>9.76</v>
       </c>
       <c r="M15">
-        <v>11.37</v>
+        <v>11.45</v>
       </c>
       <c r="N15">
-        <v>11.95</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>14.587429999999999</v>
+        <v>-22.9121609</v>
       </c>
       <c r="C16">
-        <v>120.98368069999999</v>
+        <v>-43.175010700000001</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>3.53</v>
+        <v>6.64</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>7.56</v>
       </c>
       <c r="H16">
-        <v>5.95</v>
+        <v>8.58</v>
       </c>
       <c r="I16">
-        <v>6.89</v>
+        <v>9.09</v>
       </c>
       <c r="J16">
-        <v>7.97</v>
+        <v>9.59</v>
       </c>
       <c r="K16">
-        <v>9.4</v>
+        <v>10.17</v>
       </c>
       <c r="L16">
-        <v>9.9600000000000009</v>
+        <v>10.8</v>
       </c>
       <c r="M16">
-        <v>10.76</v>
+        <v>11.37</v>
       </c>
       <c r="N16">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>35.076301600000001</v>
+        <v>14.587429999999999</v>
       </c>
       <c r="C17">
-        <v>133.5659943</v>
+        <v>120.98368069999999</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>9.41</v>
+        <v>3.53</v>
       </c>
       <c r="G17">
-        <v>9.84</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>9.99</v>
+        <v>5.95</v>
       </c>
       <c r="I17">
-        <v>10.35</v>
+        <v>6.89</v>
       </c>
       <c r="J17">
-        <v>11.04</v>
+        <v>7.97</v>
       </c>
       <c r="K17">
-        <v>11.05</v>
+        <v>9.4</v>
       </c>
       <c r="L17">
-        <v>11.17</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="M17">
-        <v>11.26</v>
+        <v>10.76</v>
       </c>
       <c r="N17">
-        <v>11.34</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>37.005100300000002</v>
+        <v>35.076301600000001</v>
       </c>
       <c r="C18">
-        <v>-89.176269500000004</v>
+        <v>133.5659943</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>5.58</v>
+        <v>9.41</v>
       </c>
       <c r="G18">
-        <v>6.45</v>
+        <v>9.84</v>
       </c>
       <c r="H18">
-        <v>7.35</v>
+        <v>9.99</v>
       </c>
       <c r="I18">
-        <v>8.33</v>
+        <v>10.35</v>
       </c>
       <c r="J18">
-        <v>9.06</v>
+        <v>11.04</v>
       </c>
       <c r="K18">
-        <v>9.7100000000000009</v>
+        <v>11.05</v>
       </c>
       <c r="L18">
-        <v>10.17</v>
+        <v>11.17</v>
       </c>
       <c r="M18">
-        <v>10.56</v>
+        <v>11.26</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>6.4547100000000004</v>
+        <v>37.005100300000002</v>
       </c>
       <c r="C19">
-        <v>3.3887600999999998</v>
+        <v>-89.176269500000004</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="K19">
-        <v>5.97</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="L19">
-        <v>7.23</v>
+        <v>10.17</v>
       </c>
       <c r="M19">
-        <v>8.77</v>
+        <v>10.56</v>
       </c>
       <c r="N19">
-        <v>10.58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>55.756969499999997</v>
+        <v>6.4547100000000004</v>
       </c>
       <c r="C20">
-        <v>37.615020800000003</v>
+        <v>3.3887600999999998</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>7.62</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>8.14</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>9.1999999999999993</v>
+        <v>5.97</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>7.23</v>
       </c>
       <c r="M20">
-        <v>10.42</v>
+        <v>8.77</v>
       </c>
       <c r="N20">
-        <v>10.55</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>41.040958400000001</v>
+        <v>55.756969499999997</v>
       </c>
       <c r="C21">
-        <v>28.985799799999999</v>
+        <v>37.615020800000003</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>7.11</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="H21">
-        <v>4.4000000000000004</v>
+        <v>8.14</v>
       </c>
       <c r="I21">
-        <v>5.41</v>
+        <v>8.58</v>
       </c>
       <c r="J21">
-        <v>6.55</v>
+        <v>8.99</v>
       </c>
       <c r="K21">
-        <v>7.67</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L21">
-        <v>8.74</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>9.7100000000000009</v>
+        <v>10.42</v>
       </c>
       <c r="N21">
-        <v>10.52</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>48.856929800000003</v>
+        <v>41.040958400000001</v>
       </c>
       <c r="C22">
-        <v>2.3412001</v>
+        <v>28.985799799999999</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>8.67</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I22">
-        <v>8.9600000000000009</v>
+        <v>5.41</v>
       </c>
       <c r="J22">
-        <v>9.33</v>
+        <v>6.55</v>
       </c>
       <c r="K22">
-        <v>9.51</v>
+        <v>7.67</v>
       </c>
       <c r="L22">
-        <v>9.74</v>
+        <v>8.74</v>
       </c>
       <c r="M22">
-        <v>10.11</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="N22">
-        <v>10.49</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>37.515018499999996</v>
+        <v>48.856929800000003</v>
       </c>
       <c r="C23">
-        <v>127.0164719</v>
+        <v>2.3412001</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23">
-        <v>5.31</v>
+        <v>8.35</v>
       </c>
       <c r="G23">
-        <v>6.81</v>
+        <v>8.56</v>
       </c>
       <c r="H23">
-        <v>8.26</v>
+        <v>8.67</v>
       </c>
       <c r="I23">
-        <v>9.5500000000000007</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="J23">
-        <v>10.54</v>
+        <v>9.33</v>
       </c>
       <c r="K23">
-        <v>10.26</v>
+        <v>9.51</v>
       </c>
       <c r="L23">
-        <v>9.92</v>
+        <v>9.74</v>
       </c>
       <c r="M23">
-        <v>9.83</v>
+        <v>10.11</v>
       </c>
       <c r="N23">
-        <v>9.77</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>29.5509491</v>
+        <v>37.515018499999996</v>
       </c>
       <c r="C24">
-        <v>106.5193481</v>
+        <v>127.0164719</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6.81</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="N24">
-        <v>9.4</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>-6.1714902</v>
+        <v>29.5509491</v>
       </c>
       <c r="C25">
-        <v>106.8275223</v>
+        <v>106.5193481</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4.8099999999999996</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.01</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.39</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>8.7899999999999991</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>9.2100000000000009</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>41.884250600000001</v>
+        <v>-6.1714902</v>
       </c>
       <c r="C26">
-        <v>-87.632446299999998</v>
+        <v>106.8275223</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>7.11</v>
+        <v>3.92</v>
       </c>
       <c r="G26">
-        <v>7.16</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H26">
-        <v>7.22</v>
+        <v>5.98</v>
       </c>
       <c r="I26">
-        <v>7.29</v>
+        <v>7.01</v>
       </c>
       <c r="J26">
-        <v>7.37</v>
+        <v>8.18</v>
       </c>
       <c r="K26">
-        <v>7.84</v>
+        <v>8.32</v>
       </c>
       <c r="L26">
-        <v>8.33</v>
+        <v>8.39</v>
       </c>
       <c r="M26">
-        <v>8.82</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="N26">
-        <v>9.1999999999999993</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>22.5562191</v>
+        <v>41.884250600000001</v>
       </c>
       <c r="C27">
-        <v>114.11878969999999</v>
+        <v>-87.632446299999998</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7.11</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>7.16</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>7.84</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="M27">
-        <v>7.93</v>
+        <v>8.82</v>
       </c>
       <c r="N27">
-        <v>9.01</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>-12.0561399</v>
+        <v>22.5562191</v>
       </c>
       <c r="C28">
-        <v>-77.026802099999998</v>
+        <v>114.11878969999999</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4.4400000000000004</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>6.58</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>8.08</v>
+        <v>7.93</v>
       </c>
       <c r="N28">
-        <v>8.94</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>23.1133709</v>
+        <v>-12.0561399</v>
       </c>
       <c r="C29">
-        <v>113.2552338</v>
+        <v>-77.026802099999998</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>5.84</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>6.58</v>
       </c>
       <c r="L29">
-        <v>7.33</v>
+        <v>7.29</v>
       </c>
       <c r="M29">
-        <v>8.16</v>
+        <v>8.08</v>
       </c>
       <c r="N29">
-        <v>8.8800000000000008</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-4.3122201000000002</v>
+        <v>23.1133709</v>
       </c>
       <c r="C30">
-        <v>15.2895298</v>
+        <v>113.2552338</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2365,142 +2375,142 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="N30">
-        <v>8.75</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>51.506431599999999</v>
+        <v>-4.3122201000000002</v>
       </c>
       <c r="C31">
-        <v>-0.12719</v>
+        <v>15.2895298</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>8.2200000000000006</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>8.51</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>8.6300000000000008</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>39.144939399999998</v>
+        <v>51.506431599999999</v>
       </c>
       <c r="C32">
-        <v>117.2005692</v>
+        <v>-0.12719</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32">
-        <v>3.32</v>
+        <v>7.51</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>7.67</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="L32">
-        <v>6.67</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="M32">
-        <v>7.28</v>
+        <v>8.51</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>22.336156800000001</v>
+        <v>39.144939399999998</v>
       </c>
       <c r="C33">
-        <v>114.1869659</v>
+        <v>117.2005692</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="G33">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>4.6100000000000003</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>6.67</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2508,40 +2518,40 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>35.689540899999997</v>
+        <v>22.336156800000001</v>
       </c>
       <c r="C34">
-        <v>51.414684299999998</v>
+        <v>114.1869659</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34">
-        <v>3.29</v>
+        <v>3.46</v>
       </c>
       <c r="G34">
-        <v>4.2699999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="H34">
-        <v>5.08</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="I34">
-        <v>5.84</v>
+        <v>5.07</v>
       </c>
       <c r="J34">
-        <v>6.36</v>
+        <v>5.68</v>
       </c>
       <c r="K34">
-        <v>6.69</v>
+        <v>6.21</v>
       </c>
       <c r="L34">
-        <v>6.88</v>
+        <v>6.67</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2552,40 +2562,40 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>13.050330199999999</v>
+        <v>35.689540899999997</v>
       </c>
       <c r="C35">
-        <v>80.188591000000002</v>
+        <v>51.414684299999998</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="I35">
-        <v>4.75</v>
+        <v>5.84</v>
       </c>
       <c r="J35">
-        <v>5.34</v>
+        <v>6.36</v>
       </c>
       <c r="K35">
-        <v>5.84</v>
+        <v>6.69</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2596,37 +2606,37 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>13.753350299999999</v>
+        <v>13.050330199999999</v>
       </c>
       <c r="C36">
-        <v>100.50482940000001</v>
+        <v>80.188591000000002</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>5.28</v>
+        <v>4.75</v>
       </c>
       <c r="J36">
-        <v>5.89</v>
+        <v>5.34</v>
       </c>
       <c r="K36">
-        <v>6.11</v>
+        <v>5.84</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2640,37 +2650,37 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>59.9331818</v>
+        <v>13.753350299999999</v>
       </c>
       <c r="C37">
-        <v>30.3060303</v>
+        <v>100.50482940000001</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F37">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>4.33</v>
+        <v>3.84</v>
       </c>
       <c r="H37">
-        <v>4.6399999999999997</v>
+        <v>4.72</v>
       </c>
       <c r="I37">
-        <v>4.84</v>
+        <v>5.28</v>
       </c>
       <c r="J37">
-        <v>4.99</v>
+        <v>5.89</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2684,34 +2694,34 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>40.451400800000002</v>
+        <v>59.9331818</v>
       </c>
       <c r="C38">
-        <v>-3.5631499</v>
+        <v>30.3060303</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38">
-        <v>3.52</v>
+        <v>3.98</v>
       </c>
       <c r="G38">
-        <v>3.89</v>
+        <v>4.33</v>
       </c>
       <c r="H38">
-        <v>4.25</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2728,28 +2738,28 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>39.952278100000001</v>
+        <v>40.451400800000002</v>
       </c>
       <c r="C39">
-        <v>-75.162452700000003</v>
+        <v>-3.5631499</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>4.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="G39">
-        <v>4.47</v>
+        <v>3.89</v>
       </c>
       <c r="H39">
-        <v>4.54</v>
+        <v>4.25</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2772,45 +2782,89 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39.952278100000001</v>
+      </c>
+      <c r="C40">
+        <v>-75.162452700000003</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G40">
+        <v>4.47</v>
+      </c>
+      <c r="H40">
+        <v>4.54</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>42.331680300000002</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>-83.047920199999993</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>62</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>3.97</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>3.89</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
     </row>
